--- a/data/trans_bre/P16A12-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -1,06</t>
+          <t>-5,58; -0,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,48</t>
+          <t>-3,53; 2,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; -0,37</t>
+          <t>-7,33; -0,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -2,47</t>
+          <t>-7,22; -2,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-89,5; -14,5</t>
+          <t>-89,26; -9,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 83,87</t>
+          <t>-62,83; 89,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-76,59; -1,38</t>
+          <t>-76,91; -4,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-75,76; -35,72</t>
+          <t>-74,96; -33,09</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,33; -0,53</t>
+          <t>-5,67; -0,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,2</t>
+          <t>-5,31; 0,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; -0,55</t>
+          <t>-6,57; -0,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -3,99</t>
+          <t>-9,93; -4,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,36; -4,06</t>
+          <t>-89,89; -8,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,75; 9,79</t>
+          <t>-79,01; 24,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-82,87; -4,01</t>
+          <t>-83,21; -1,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,99; -54,04</t>
+          <t>-84,8; -55,41</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 7,24</t>
+          <t>-1,95; 7,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 0,35</t>
+          <t>-7,69; 0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 2,55</t>
+          <t>-8,02; 1,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 9,96</t>
+          <t>-2,46; 9,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 168,8</t>
+          <t>-35,58; 177,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 4,73</t>
+          <t>-66,11; 7,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 34,61</t>
+          <t>-70,87; 25,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 353,94</t>
+          <t>-23,16; 322,81</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -1,09</t>
+          <t>-5,18; -1,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; -1,48</t>
+          <t>-6,29; -1,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -3,41</t>
+          <t>-7,65; -3,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -4,08</t>
+          <t>-9,32; -4,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,15; -15,25</t>
+          <t>-61,39; -14,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,0; -16,76</t>
+          <t>-61,61; -17,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-75,47; -41,87</t>
+          <t>-74,41; -40,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,9; -42,85</t>
+          <t>-80,09; -43,97</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 1,57</t>
+          <t>-4,57; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 5,19</t>
+          <t>-1,36; 4,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 1,67</t>
+          <t>-4,79; 2,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,82</t>
+          <t>-2,37; 3,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,42; 35,74</t>
+          <t>-52,84; 41,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 104,23</t>
+          <t>-16,1; 91,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 18,95</t>
+          <t>-38,99; 23,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 50,92</t>
+          <t>-21,98; 54,97</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,22</t>
+          <t>7,79; 11,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,29</t>
+          <t>8,65; 14,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,68</t>
+          <t>9,24; 14,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,11</t>
+          <t>8,3; 12,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>169,91; 1814,73</t>
+          <t>148,49; 1769,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>278,31; 3710,41</t>
+          <t>281,52; 3738,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>352,66; 5363,82</t>
+          <t>319,76; 5965,75</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,6</t>
+          <t>-0,74; 1,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,7</t>
+          <t>-0,28; 2,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,77</t>
+          <t>-2,04; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,82</t>
+          <t>-2,8; 0,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 31,19</t>
+          <t>-11,82; 30,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 42,05</t>
+          <t>-3,53; 38,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 9,97</t>
+          <t>-22,72; 10,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 9,44</t>
+          <t>-31,54; 9,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A12-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
